--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/SCORE_117.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE117_Computer Programming for Computer Engineer/SCORE_117.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE117_Computer Programming for Computer Engineer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE117_Computer Programming for Computer Engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AECA1C-FDBF-4959-82FE-639CB10C0DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3101F01-4704-40AF-A5AA-23602C26FD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="2940" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -355,12 +355,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -380,9 +374,15 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -686,184 +686,184 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.7109375" style="1"/>
+    <col min="19" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A3" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7" t="s">
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
@@ -894,20 +894,20 @@
       <c r="M7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A8" s="5">
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="3"/>
@@ -931,14 +931,14 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A9" s="5">
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="3"/>
@@ -962,14 +962,14 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A10" s="5">
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3"/>
@@ -993,42 +993,42 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A11" s="5">
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="14"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="12"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A12" s="5">
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="3"/>
@@ -1042,7 +1042,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2">
-        <f t="shared" ref="N11:N28" si="0">SUM(D12:M12)</f>
+        <f t="shared" ref="N12:N28" si="0">SUM(D12:M12)</f>
         <v>0</v>
       </c>
       <c r="O12" s="2"/>
@@ -1050,14 +1050,14 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A13" s="5">
         <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="3"/>
@@ -1079,14 +1079,14 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A14" s="5">
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="3"/>
@@ -1110,14 +1110,14 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A15" s="5">
         <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="3"/>
@@ -1141,14 +1141,14 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A16" s="5">
         <v>9</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="3"/>
@@ -1172,14 +1172,14 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A17" s="5">
         <v>10</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="3"/>
@@ -1203,14 +1203,14 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A18" s="5">
         <v>11</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="2"/>
@@ -1234,27 +1234,27 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A19" s="5">
         <v>12</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9">
         <v>1.34</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2">
         <f t="shared" si="0"/>
@@ -1265,28 +1265,28 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A20" s="5">
         <v>13</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9">
         <v>9.1</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
       <c r="N20" s="2">
         <f t="shared" si="0"/>
         <v>9.1</v>
@@ -1296,28 +1296,28 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A21" s="5">
         <v>14</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9">
         <v>2.9</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
       <c r="N21" s="2">
         <f>SUM(D21:M21)</f>
         <v>2.9</v>
@@ -1327,28 +1327,28 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A22" s="5">
         <v>15</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9">
         <v>2.9</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
       <c r="N22" s="2">
         <f t="shared" si="0"/>
         <v>2.9</v>
@@ -1358,28 +1358,28 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A23" s="5">
         <v>16</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9">
         <v>6.3</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
       <c r="N23" s="2">
         <f t="shared" si="0"/>
         <v>6.3</v>
@@ -1389,57 +1389,59 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A24" s="5">
         <v>17</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9">
+        <v>6.45</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
       <c r="N24" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.45</v>
       </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A25" s="5">
         <v>18</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9">
         <v>5.2</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
       <c r="N25" s="2">
         <f t="shared" si="0"/>
         <v>5.2</v>
@@ -1449,28 +1451,28 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A26" s="5">
         <v>19</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9">
         <v>4</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
       <c r="N26" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1480,28 +1482,28 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A27" s="5">
         <v>20</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9">
         <v>6.6</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
       <c r="N27" s="2">
         <f t="shared" si="0"/>
         <v>6.6</v>
@@ -1511,28 +1513,28 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.8">
       <c r="A28" s="5">
         <v>21</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11">
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9">
         <v>2.4</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
       <c r="N28" s="2">
         <f t="shared" si="0"/>
         <v>2.4</v>
@@ -1542,22 +1544,22 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="M29" s="8" t="s">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.8">
+      <c r="M29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N29" s="7">
         <f>AVERAGE(N8:N28)</f>
-        <v>3.5394999999999994</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>3.8619999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.8">
       <c r="M30" s="5" t="s">
         <v>33</v>
       </c>
       <c r="N30" s="2">
         <f>_xlfn.STDEV.P(N8:N28)</f>
-        <v>2.5153219972798717</v>
+        <v>2.4535659762883908</v>
       </c>
     </row>
   </sheetData>
